--- a/results/PlayGround.xlsx
+++ b/results/PlayGround.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-temp/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -436,7 +436,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.102431408549804"/>
+          <c:y val="0.088315090720234"/>
+          <c:w val="0.681488805793244"/>
+          <c:h val="0.795008419615842"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -874,11 +884,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="243853344"/>
-        <c:axId val="225524608"/>
+        <c:axId val="-62347616"/>
+        <c:axId val="28053008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243853344"/>
+        <c:axId val="-62347616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +916,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -921,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="225524608"/>
+        <c:crossAx val="28053008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -929,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="225524608"/>
+        <c:axId val="28053008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180.0"/>
@@ -957,7 +967,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -970,7 +980,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Time (secomds)</a:t>
                 </a:r>
               </a:p>
@@ -990,7 +1000,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1021,7 +1031,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1036,7 +1046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243853344"/>
+        <c:crossAx val="-62347616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1049,8 +1059,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.6827837518006"/>
+          <c:y val="0.0718431283705874"/>
+          <c:w val="0.305233869843538"/>
+          <c:h val="0.384756062533725"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1064,7 +1083,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1133,7 +1152,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0997227241480246"/>
+          <c:y val="0.0195629554039609"/>
+          <c:w val="0.709431011006142"/>
+          <c:h val="0.883676510063281"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -1246,7 +1275,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10.165</c:v>
+                  <c:v>7.565</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.464</c:v>
@@ -1306,13 +1335,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>86.90225</c:v>
+                  <c:v>73.90225</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.7144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.01233333333333</c:v>
+                  <c:v>32.13444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,7 +1401,7 @@
                   <c:v>13.994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39.98155555555556</c:v>
+                  <c:v>35.13444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,11 +1477,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="243796720"/>
-        <c:axId val="243799040"/>
+        <c:axId val="28080688"/>
+        <c:axId val="28083456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243796720"/>
+        <c:axId val="28080688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1509,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1495,7 +1524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243799040"/>
+        <c:crossAx val="28083456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1503,7 +1532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243799040"/>
+        <c:axId val="28083456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1530,7 +1559,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1563,7 +1592,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1594,7 +1623,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1609,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243796720"/>
+        <c:crossAx val="28080688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1622,13 +1651,24 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.659391200640413"/>
+          <c:y val="0.0225533219678797"/>
+          <c:w val="0.329124478371696"/>
+          <c:h val="0.431011089884175"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1637,7 +1677,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1677,7 +1717,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2000"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1789,11 +1829,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="263908784"/>
-        <c:axId val="263736592"/>
+        <c:axId val="28106992"/>
+        <c:axId val="28109744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="263908784"/>
+        <c:axId val="28106992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263736592"/>
+        <c:crossAx val="28109744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1844,7 +1884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="263736592"/>
+        <c:axId val="28109744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="263908784"/>
+        <c:crossAx val="28106992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6792,11 +6832,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="243705888"/>
-        <c:axId val="243664528"/>
+        <c:axId val="28128848"/>
+        <c:axId val="28132880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243705888"/>
+        <c:axId val="28128848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6828,7 +6868,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6895,7 +6934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243664528"/>
+        <c:crossAx val="28132880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6903,7 +6942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243664528"/>
+        <c:axId val="28132880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6949,7 +6988,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7010,7 +7048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243705888"/>
+        <c:crossAx val="28128848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7024,7 +7062,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11894,11 +11931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="243622688"/>
-        <c:axId val="243626080"/>
+        <c:axId val="28169936"/>
+        <c:axId val="28173968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243622688"/>
+        <c:axId val="28169936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11930,7 +11967,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11997,7 +12033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243626080"/>
+        <c:crossAx val="28173968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12005,7 +12041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243626080"/>
+        <c:axId val="28173968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12051,7 +12087,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12111,7 +12146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243622688"/>
+        <c:crossAx val="28169936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12125,7 +12160,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12331,11 +12365,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243675216"/>
-        <c:axId val="243680608"/>
+        <c:axId val="28201872"/>
+        <c:axId val="28204624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243675216"/>
+        <c:axId val="28201872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12378,7 +12412,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243680608"/>
+        <c:crossAx val="28204624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12386,7 +12420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243680608"/>
+        <c:axId val="28204624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12491,7 +12525,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243675216"/>
+        <c:crossAx val="28201872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15833,15 +15867,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>597647</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>74704</xdr:rowOff>
+      <xdr:colOff>224117</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>186762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>87157</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585196</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>49803</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15862,16 +15896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12451</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>124509</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1680882</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>186763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>410883</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>49803</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>298825</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>87157</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25418,8 +25452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A109" zoomScale="102" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130:I130"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" zoomScale="102" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25684,7 +25718,7 @@
         <v>49</v>
       </c>
       <c r="B20">
-        <v>10.165000000000001</v>
+        <v>7.5650000000000004</v>
       </c>
       <c r="C20">
         <v>1.464</v>
@@ -25705,14 +25739,14 @@
         <v>93</v>
       </c>
       <c r="B21">
-        <v>86.902250000000009</v>
+        <v>73.902249999999995</v>
       </c>
       <c r="C21">
         <v>14.714400000000001</v>
       </c>
       <c r="D21">
-        <f>G20/1.8</f>
-        <v>35.012333333333331</v>
+        <f>32.13444</f>
+        <v>32.134439999999998</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -25732,8 +25766,8 @@
         <v>13.994</v>
       </c>
       <c r="D22">
-        <f>G24/1.8</f>
-        <v>39.981555555555559</v>
+        <f>35.13444</f>
+        <v>35.134439999999998</v>
       </c>
       <c r="F22" t="s">
         <v>60</v>
@@ -25763,6 +25797,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f>SUM(B19:B23)</f>
+        <v>135.523</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:D24" si="0">SUM(C19:C23)</f>
+        <v>47.2624</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>79.082729999999998</v>
+      </c>
       <c r="F24" t="s">
         <v>53</v>
       </c>
@@ -25771,6 +25817,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f>B24-C24</f>
+        <v>88.260599999999997</v>
+      </c>
+      <c r="D25">
+        <f>B24-D24</f>
+        <v>56.440269999999998</v>
+      </c>
       <c r="F25" t="s">
         <v>55</v>
       </c>
